--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-arena-payout/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Griffith</t>
+  </si>
+  <si>
+    <t>:flag_be:</t>
+  </si>
+  <si>
+    <t>lizsen77</t>
+  </si>
+  <si>
+    <t>darthdingus6666</t>
   </si>
 </sst>
 </file>
@@ -257,6 +266,136 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -265,6 +404,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -273,6 +424,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -282,20 +445,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -338,157 +498,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,31 +518,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:D17"/>
-  <sortState ref="A2:D17">
-    <sortCondition ref="D1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D19"/>
+  <sortState ref="A2:D19">
+    <sortCondition ref="D1:D19"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="15"/>
-    <tableColumn id="4" name="Flag" dataDxfId="14"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="13"/>
-    <tableColumn id="2" name="UTC" dataDxfId="12"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Flag" dataDxfId="2"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="1"/>
+    <tableColumn id="2" name="UTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D24" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:D24" headerRowCount="0" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <sortState ref="A19:D25">
     <sortCondition ref="D18:D25"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="0" dataDxfId="8"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="7"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="2" dataDxfId="6"/>
-    <tableColumn id="6" name="Column2" headerRowDxfId="3" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="6" name="Column2" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,14 +848,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -923,55 +932,55 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>16</v>
@@ -979,13 +988,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -993,13 +1002,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>16</v>
@@ -1007,83 +1016,83 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>22</v>
@@ -1091,67 +1100,71 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>darthdingus6666</t>
+  </si>
+  <si>
+    <t>Mogilnin</t>
+  </si>
+  <si>
+    <t>mogilnin</t>
+  </si>
+  <si>
+    <t>Himalia Covell</t>
   </si>
 </sst>
 </file>
@@ -291,6 +300,149 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -355,149 +507,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,31 +527,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:D20"/>
   <sortState ref="A2:D19">
     <sortCondition ref="D1:D19"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Flag" dataDxfId="2"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="1"/>
-    <tableColumn id="2" name="UTC" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" name="Flag" dataDxfId="14"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="13"/>
+    <tableColumn id="2" name="UTC" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:D24" headerRowCount="0" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A21:D26" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <sortState ref="A19:D25">
     <sortCondition ref="D18:D25"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="6" name="Column2" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="6" name="Column2" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,13 +1123,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
         <v>22</v>
@@ -1128,61 +1137,87 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
         <v>22</v>
       </c>
     </row>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -857,7 +857,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>22</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>22</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Himalia Covell</t>
+  </si>
+  <si>
+    <t>MacDaddy</t>
   </si>
 </sst>
 </file>
@@ -527,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:D21"/>
   <sortState ref="A2:D19">
     <sortCondition ref="D1:D19"/>
   </sortState>
@@ -543,7 +546,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A21:D26" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A22:D27" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <sortState ref="A19:D25">
     <sortCondition ref="D18:D25"/>
   </sortState>
@@ -854,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,69 +1140,69 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -1211,13 +1214,25 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
         <v>22</v>
       </c>
     </row>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>MacDaddy</t>
+  </si>
+  <si>
+    <t>mcgregor2323</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1148,9 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D20" s="1">
         <v>22</v>
       </c>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>mcgregor2323</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>wizeng23</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:D22"/>
   <sortState ref="A2:D19">
     <sortCondition ref="D1:D19"/>
   </sortState>
@@ -549,7 +555,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A22:D27" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A23:D28" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <sortState ref="A19:D25">
     <sortCondition ref="D18:D25"/>
   </sortState>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,13 +953,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -961,55 +967,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -1017,13 +1023,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>16</v>
@@ -1031,13 +1037,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1045,13 +1051,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>16</v>
@@ -1059,69 +1065,69 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
         <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
@@ -1129,13 +1135,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>22</v>
@@ -1143,13 +1149,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>22</v>
@@ -1157,13 +1163,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>22</v>
@@ -1171,55 +1177,57 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1231,13 +1239,25 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
         <v>22</v>
       </c>
     </row>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -869,7 +869,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,13 +953,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -181,9 +181,6 @@
     <t>tosh</t>
   </si>
   <si>
-    <t>DarthDingus</t>
-  </si>
-  <si>
     <t>Mal'og Therne</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>wizeng23</t>
+  </si>
+  <si>
+    <t>DarthDinguss</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,13 +953,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1082,10 +1082,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1">
         <v>22</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -181,6 +181,9 @@
     <t>tosh</t>
   </si>
   <si>
+    <t>DarthDingus</t>
+  </si>
+  <si>
     <t>Mal'og Therne</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t>wizeng23</t>
-  </si>
-  <si>
-    <t>DarthDinguss</t>
   </si>
 </sst>
 </file>
@@ -953,13 +953,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1082,10 +1082,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>22</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -221,13 +221,16 @@
   </si>
   <si>
     <t>wizeng23</t>
+  </si>
+  <si>
+    <t>Park Jihyo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,8 +257,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,16 +287,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -293,207 +304,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -508,9 +322,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="0"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -519,6 +335,70 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,33 +419,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:D22"/>
-  <sortState ref="A2:D19">
-    <sortCondition ref="D1:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:D29"/>
+  <sortState ref="A2:D29">
+    <sortCondition ref="D1:D29"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="15"/>
-    <tableColumn id="4" name="Flag" dataDxfId="14"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="13"/>
-    <tableColumn id="2" name="UTC" dataDxfId="12"/>
+    <tableColumn id="1" name="Name" dataDxfId="5"/>
+    <tableColumn id="4" name="Flag" dataDxfId="4"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="3"/>
+    <tableColumn id="2" name="UTC" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A23:D28" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
-  <sortState ref="A19:D25">
-    <sortCondition ref="D18:D25"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="4" dataDxfId="3"/>
-    <tableColumn id="6" name="Column2" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -866,406 +731,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D16" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D22" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D25" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D26" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D28" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>:flag_br:</t>
   </si>
   <si>
-    <t>:flag_se:</t>
-  </si>
-  <si>
     <t>:flag_hu:</t>
   </si>
   <si>
@@ -136,21 +133,12 @@
     <t>ansirus</t>
   </si>
   <si>
-    <t>mascularn</t>
-  </si>
-  <si>
     <t>mops56</t>
   </si>
   <si>
-    <t>ronron</t>
-  </si>
-  <si>
     <t>xilentis</t>
   </si>
   <si>
-    <t>angin</t>
-  </si>
-  <si>
     <t>jinnkuen</t>
   </si>
   <si>
@@ -224,6 +212,9 @@
   </si>
   <si>
     <t>Park Jihyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:peace: </t>
   </si>
 </sst>
 </file>
@@ -313,45 +304,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -400,6 +352,45 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -419,16 +410,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D29"/>
   <sortState ref="A2:D29">
-    <sortCondition ref="D1:D29"/>
+    <sortCondition ref="D2:D29"/>
+    <sortCondition ref="B2:B29"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="5"/>
-    <tableColumn id="4" name="Flag" dataDxfId="4"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="3"/>
-    <tableColumn id="2" name="UTC" dataDxfId="2"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Flag" dataDxfId="2"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="1"/>
+    <tableColumn id="2" name="UTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -734,7 +726,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -763,13 +755,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -777,13 +769,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -791,13 +783,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -805,13 +797,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -819,13 +811,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -833,24 +825,22 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -859,10 +849,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
@@ -871,13 +861,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -885,10 +875,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -897,13 +887,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>15</v>
@@ -911,10 +901,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
@@ -923,13 +913,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
@@ -940,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
@@ -954,10 +944,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -965,13 +955,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -979,38 +969,34 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -1019,10 +1005,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -1031,13 +1017,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3">
         <v>17</v>
@@ -1045,13 +1031,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
@@ -1059,13 +1045,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
@@ -1073,13 +1059,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3">
         <v>22</v>
@@ -1087,13 +1073,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>22</v>
@@ -1101,25 +1087,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
         <v>22</v>
@@ -1127,14 +1115,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3">
         <v>22</v>
       </c>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -215,15 +215,26 @@
   </si>
   <si>
     <t xml:space="preserve">:peace: </t>
+  </si>
+  <si>
+    <t>Dorff Luden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,13 +287,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,17 +422,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D29"/>
-  <sortState ref="A2:D29">
-    <sortCondition ref="D2:D29"/>
-    <sortCondition ref="B2:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D30">
+    <sortCondition ref="D2:D30"/>
+    <sortCondition ref="B2:B30"/>
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Flag" dataDxfId="2"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="1"/>
-    <tableColumn id="2" name="UTC" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Flag" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SWGOHGG" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,20 +1005,20 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -1016,56 +1029,54 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3">
         <v>22</v>
@@ -1073,13 +1084,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3">
         <v>22</v>
@@ -1087,13 +1098,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3">
         <v>22</v>
@@ -1101,13 +1112,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3">
         <v>22</v>
@@ -1115,21 +1126,29 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -1166,6 +1185,12 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -218,15 +218,26 @@
   </si>
   <si>
     <t>Dorff Luden</t>
+  </si>
+  <si>
+    <t>Tianerx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,13 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -422,12 +434,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D30">
-    <sortCondition ref="D2:D30"/>
-    <sortCondition ref="B2:B30"/>
-    <sortCondition ref="A2:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D31">
+    <sortCondition ref="D2:D31"/>
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -736,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,56 +1053,54 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3">
         <v>22</v>
@@ -1098,13 +1108,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3">
         <v>22</v>
@@ -1112,13 +1122,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3">
         <v>22</v>
@@ -1126,13 +1136,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
         <v>22</v>
@@ -1140,21 +1150,29 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -1191,6 +1209,12 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -221,15 +221,32 @@
   </si>
   <si>
     <t>Tianerx</t>
+  </si>
+  <si>
+    <t>Drayton</t>
+  </si>
+  <si>
+    <t>:flag_au:</t>
+  </si>
+  <si>
+    <t>drayton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -298,13 +315,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -434,12 +452,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D31">
-    <sortCondition ref="D2:D31"/>
-    <sortCondition ref="B2:B31"/>
-    <sortCondition ref="A2:A31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D32">
+    <sortCondition ref="D2:D32"/>
+    <sortCondition ref="B2:B32"/>
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -748,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,92 +891,92 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="A9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3">
         <v>16</v>
@@ -966,13 +984,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -980,13 +998,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -994,19 +1012,21 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>59</v>
@@ -1017,32 +1037,32 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1053,68 +1073,66 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3">
         <v>22</v>
@@ -1122,13 +1140,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3">
         <v>22</v>
@@ -1136,13 +1154,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3">
         <v>22</v>
@@ -1150,13 +1168,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1164,21 +1182,29 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -1215,6 +1241,12 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +901,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -230,15 +230,29 @@
   </si>
   <si>
     <t>drayton</t>
+  </si>
+  <si>
+    <t>mistad33ds</t>
+  </si>
+  <si>
+    <t>Mista D33ds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -315,13 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -452,12 +467,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D32">
-    <sortCondition ref="D2:D32"/>
-    <sortCondition ref="B2:B32"/>
-    <sortCondition ref="A2:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D33">
+    <sortCondition ref="D2:D33"/>
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -766,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,11 +1221,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="9">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -1247,6 +1270,12 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Park Jihyo</t>
   </si>
   <si>
-    <t xml:space="preserve">:peace: </t>
-  </si>
-  <si>
     <t>Dorff Luden</t>
   </si>
   <si>
@@ -236,15 +233,35 @@
   </si>
   <si>
     <t>Mista D33ds</t>
+  </si>
+  <si>
+    <t>:flag_se:</t>
+  </si>
+  <si>
+    <t>angin</t>
+  </si>
+  <si>
+    <t>ronron</t>
+  </si>
+  <si>
+    <t>mascularn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -329,17 +346,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,13 +888,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -883,12 +902,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
@@ -907,13 +928,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="8">
         <v>8</v>
@@ -1011,61 +1032,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D20" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -1074,8 +1099,9 @@
       <c r="D21" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1099,9 +1125,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>41</v>
@@ -1111,7 +1137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -1153,7 +1179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1181,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
@@ -1195,7 +1221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -1223,13 +1249,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9">
         <v>23</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>mascularn</t>
+  </si>
+  <si>
+    <t>Medved</t>
   </si>
 </sst>
 </file>
@@ -486,12 +489,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D33">
-    <sortCondition ref="D2:D33"/>
-    <sortCondition ref="B2:B33"/>
-    <sortCondition ref="A2:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D34">
+    <sortCondition ref="D2:D34"/>
+    <sortCondition ref="B2:B34"/>
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -800,20 +803,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="13.046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1114,80 +1117,78 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
         <v>22</v>
@@ -1195,13 +1196,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D29" s="3">
         <v>22</v>
@@ -1209,13 +1210,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1223,13 +1224,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1237,35 +1238,43 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D32" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -1302,6 +1311,12 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -248,15 +248,32 @@
   </si>
   <si>
     <t>Medved</t>
+  </si>
+  <si>
+    <t>Alastis</t>
+  </si>
+  <si>
+    <t>:flag_tr:</t>
+  </si>
+  <si>
+    <t>alastis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,19 +366,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,12 +507,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D34">
-    <sortCondition ref="D2:D34"/>
-    <sortCondition ref="B2:B34"/>
-    <sortCondition ref="A2:A34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D35">
+    <sortCondition ref="D2:D35"/>
+    <sortCondition ref="B2:B35"/>
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -803,20 +821,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.89453125" style="4"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -996,40 +1014,40 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -1037,13 +1055,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -1051,13 +1069,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1065,13 +1083,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1079,130 +1097,130 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>16</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3">
         <v>22</v>
@@ -1210,13 +1228,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1224,13 +1242,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1238,13 +1256,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1252,35 +1270,43 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -1317,6 +1343,12 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B2B27-2698-1D4A-BAF3-29DAEAA33383}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -257,15 +258,32 @@
   </si>
   <si>
     <t>alastis</t>
+  </si>
+  <si>
+    <t>Br4inw4sh3r</t>
+  </si>
+  <si>
+    <t>:flag_pt:</t>
+  </si>
+  <si>
+    <t>br4inw4sh3r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,19 +384,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -507,12 +526,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D35">
-    <sortCondition ref="D2:D35"/>
-    <sortCondition ref="B2:B35"/>
-    <sortCondition ref="A2:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D36">
+    <sortCondition ref="D2:D36"/>
+    <sortCondition ref="B2:B36"/>
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -821,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,41 +1219,41 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="3">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1242,13 +1261,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1256,13 +1275,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1270,13 +1289,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1284,35 +1303,43 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
@@ -1349,6 +1376,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B2B27-2698-1D4A-BAF3-29DAEAA33383}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86EAA6E-27E5-6344-B854-B1C4EDA5320D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -267,15 +267,32 @@
   </si>
   <si>
     <t>br4inw4sh3r</t>
+  </si>
+  <si>
+    <t>:flag_ua:</t>
+  </si>
+  <si>
+    <t>medved</t>
+  </si>
+  <si>
+    <t>NoNoneAny</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,19 +401,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -526,12 +544,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D36">
-    <sortCondition ref="D2:D36"/>
-    <sortCondition ref="B2:B36"/>
-    <sortCondition ref="A2:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -840,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,120 +985,118 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -1088,13 +1104,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1102,13 +1118,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1116,13 +1132,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1130,58 +1146,62 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10">
+        <v>16</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
-        <v>16</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -1192,82 +1212,80 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1275,13 +1293,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1289,13 +1307,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1303,13 +1321,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1317,35 +1335,43 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D35" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1382,6 +1408,12 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86EAA6E-27E5-6344-B854-B1C4EDA5320D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8B228-6893-4842-B6C6-C87E0CC6B348}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>NoNoneAny</t>
+  </si>
+  <si>
+    <t>Mahargo Broh</t>
+  </si>
+  <si>
+    <t>mahargobroh</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,9 +423,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -544,12 +551,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
-    <sortCondition ref="B2:B37"/>
-    <sortCondition ref="A2:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="D2:D38"/>
+    <sortCondition ref="B2:B38"/>
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -562,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -708,7 +715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -858,20 +865,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="13.046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,56 +1257,56 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="A29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1307,13 +1314,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1321,13 +1328,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1335,13 +1342,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1349,35 +1356,43 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1414,6 +1429,12 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8B228-6893-4842-B6C6-C87E0CC6B348}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3B37E-2960-C947-A932-12171D8E02D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -282,15 +282,29 @@
   </si>
   <si>
     <t>mahargobroh</t>
+  </si>
+  <si>
+    <t>Yodazmey</t>
+  </si>
+  <si>
+    <t>yodazmey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -407,26 +421,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -551,12 +566,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D38">
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="B2:B38"/>
-    <sortCondition ref="A2:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="D2:D39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -569,9 +584,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -609,7 +624,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -715,7 +730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,20 +880,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.89453125" style="4"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,54 +1085,54 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="D16" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1125,13 +1140,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1139,13 +1154,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1153,13 +1168,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -1167,60 +1182,62 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>16</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -1231,96 +1248,94 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1328,13 +1343,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1342,13 +1357,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1356,13 +1371,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1370,35 +1385,43 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D37" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1435,6 +1458,12 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3B37E-2960-C947-A932-12171D8E02D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E1A55-39F9-6345-A94E-4C0BEF55E746}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -294,9 +294,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -421,23 +429,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +892,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,30 +1094,30 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="D16" s="16">
         <v>15</v>
       </c>
     </row>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E1A55-39F9-6345-A94E-4C0BEF55E746}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476476E-FA43-AB47-B972-31CBC70C0157}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -288,15 +288,32 @@
   </si>
   <si>
     <t>yodazmey</t>
+  </si>
+  <si>
+    <t>hank ulator</t>
+  </si>
+  <si>
+    <t>hankulator</t>
+  </si>
+  <si>
+    <t>DarthYoda66</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,23 +446,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -575,12 +593,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D39">
-    <sortCondition ref="D2:D39"/>
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="A2:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D41">
+    <sortCondition ref="D2:D41"/>
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -889,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,40 +1140,38 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
+      <c r="A17" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
+      <c r="C19" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1163,13 +1179,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1177,13 +1193,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -1191,13 +1207,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -1205,174 +1221,174 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D26" s="10">
         <v>16</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D32" s="14">
         <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="3">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3">
         <v>21</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="3">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1380,13 +1396,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1394,13 +1410,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3">
         <v>22</v>
@@ -1408,41 +1424,57 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D41" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1473,6 +1505,18 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476476E-FA43-AB47-B972-31CBC70C0157}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606CE04-00A9-0345-A76D-A9FBCAE6310F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>GW</t>
   </si>
   <si>
-    <t>Griffith</t>
-  </si>
-  <si>
     <t>:flag_be:</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>hankulator</t>
-  </si>
-  <si>
-    <t>DarthYoda66</t>
   </si>
 </sst>
 </file>
@@ -593,12 +587,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D41">
-    <sortCondition ref="D2:D41"/>
-    <sortCondition ref="B2:B41"/>
-    <sortCondition ref="A2:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="D2:D39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -907,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1009,13 +1003,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1035,7 +1029,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>41</v>
@@ -1047,13 +1041,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -1087,7 +1081,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1113,13 +1107,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="D15" s="12">
         <v>15</v>
@@ -1127,13 +1121,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="D16" s="16">
         <v>15</v>
@@ -1141,37 +1135,41 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1179,13 +1177,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1193,13 +1191,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -1207,13 +1205,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -1221,174 +1219,174 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="A24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10">
         <v>16</v>
       </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <v>16</v>
       </c>
-      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>16</v>
-      </c>
-    </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
+      <c r="A29" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>16</v>
+      <c r="A30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="14">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="14">
-        <v>17</v>
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="13">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1396,13 +1394,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1410,13 +1408,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3">
         <v>22</v>
@@ -1424,57 +1422,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>22</v>
+      <c r="C39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="9">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="9">
-        <v>23</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1505,18 +1487,6 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606CE04-00A9-0345-A76D-A9FBCAE6310F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DD7EA-43D7-3347-ADBE-C57DE8B77EC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>hankulator</t>
+  </si>
+  <si>
+    <t>:flag_fr:</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,8 +1140,8 @@
       <c r="A17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
+      <c r="B17" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>84</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DD7EA-43D7-3347-ADBE-C57DE8B77EC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A0EDC8-BAF5-8045-8BC2-D9121BB001E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1137,14 +1137,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>84</v>
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1166,27 +1166,27 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
+      <c r="A20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A0EDC8-BAF5-8045-8BC2-D9121BB001E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A0B29-386B-AA44-89F4-7A4CF7E811A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -294,15 +294,29 @@
   </si>
   <si>
     <t>:flag_fr:</t>
+  </si>
+  <si>
+    <t>:flag_nl:</t>
+  </si>
+  <si>
+    <t>siilasmarr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -443,23 +457,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -907,7 +922,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,13 +1223,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -1222,60 +1237,62 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>16</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>41</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A0B29-386B-AA44-89F4-7A4CF7E811A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC48F-7BF7-0148-BB3A-689B41F4FA54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -203,9 +203,6 @@
     <t>mcgregor2323</t>
   </si>
   <si>
-    <t>William</t>
-  </si>
-  <si>
     <t>wizeng23</t>
   </si>
   <si>
@@ -300,15 +297,26 @@
   </si>
   <si>
     <t>siilasmarr</t>
+  </si>
+  <si>
+    <t>Hello There</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,23 +465,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -922,7 +931,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,14 +987,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
+      <c r="A4" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -993,13 +1002,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1007,13 +1016,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1021,13 +1030,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1047,7 +1056,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>41</v>
@@ -1059,13 +1068,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -1099,7 +1108,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1125,13 +1134,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="12">
         <v>15</v>
@@ -1139,13 +1148,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="D16" s="16">
         <v>15</v>
@@ -1187,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1195,13 +1204,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1226,10 +1235,10 @@
         <v>40</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -1254,10 +1263,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D24" s="3">
         <v>16</v>
@@ -1266,13 +1275,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="10">
         <v>16</v>
@@ -1280,7 +1289,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
@@ -1304,7 +1313,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>41</v>
@@ -1330,13 +1339,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="14">
         <v>17</v>
@@ -1344,13 +1353,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D31" s="13">
         <v>17</v>
@@ -1454,13 +1463,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="9">
         <v>23</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC48F-7BF7-0148-BB3A-689B41F4FA54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498511BB-E945-7C41-B80B-455217117BBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Mops56</t>
   </si>
   <si>
-    <t>Ronron</t>
-  </si>
-  <si>
     <t>Xilentis</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Kabob</t>
   </si>
   <si>
-    <t>Mascularn</t>
-  </si>
-  <si>
     <t>gnarlee</t>
   </si>
   <si>
@@ -234,12 +228,6 @@
   </si>
   <si>
     <t>angin</t>
-  </si>
-  <si>
-    <t>ronron</t>
-  </si>
-  <si>
-    <t>mascularn</t>
   </si>
   <si>
     <t>Medved</t>
@@ -614,12 +602,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D39">
-    <sortCondition ref="D2:D39"/>
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="A2:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -928,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -960,13 +948,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -974,13 +962,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -988,13 +976,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1002,13 +990,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1016,13 +1004,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1030,159 +1018,159 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="12">
+      <c r="C15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="16">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
+      <c r="A18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1192,25 +1180,25 @@
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1218,13 +1206,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -1232,162 +1220,162 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
       </c>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="A23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
         <v>16</v>
       </c>
-      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="14">
-        <v>17</v>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="13">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1395,13 +1383,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1409,13 +1397,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1423,57 +1411,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>22</v>
+      <c r="C37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="9">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="9">
-        <v>23</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1504,18 +1476,6 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498511BB-E945-7C41-B80B-455217117BBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF84A48-B2A3-1943-8107-B7506DAC9C53}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -288,15 +288,26 @@
   </si>
   <si>
     <t>Hello There</t>
+  </si>
+  <si>
+    <t>Peach3702to2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -453,23 +464,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -602,12 +614,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
-    <sortCondition ref="B2:B37"/>
-    <sortCondition ref="A2:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="D2:D38"/>
+    <sortCondition ref="B2:B38"/>
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,50 +1408,56 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>21</v>
+      <c r="A35" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1476,6 +1494,12 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF84A48-B2A3-1943-8107-B7506DAC9C53}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D227A-724B-A847-BE56-DB09C84208FB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>wizeng23</t>
   </si>
   <si>
-    <t>Park Jihyo</t>
-  </si>
-  <si>
     <t>Dorff Luden</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>medved</t>
   </si>
   <si>
-    <t>NoNoneAny</t>
-  </si>
-  <si>
     <t>Mahargo Broh</t>
   </si>
   <si>
@@ -291,6 +285,12 @@
   </si>
   <si>
     <t>Peach3702to2</t>
+  </si>
+  <si>
+    <t>heywoodjablomee</t>
+  </si>
+  <si>
+    <t>Heywood Jablomee</t>
   </si>
 </sst>
 </file>
@@ -614,12 +614,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D38">
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="B2:B38"/>
-    <sortCondition ref="A2:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -928,17 +928,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="4"/>
@@ -988,7 +988,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1041,120 +1041,124 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>11</v>
+      <c r="A12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -1162,27 +1166,27 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1190,13 +1194,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -1204,162 +1208,162 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
       </c>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="A21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>16</v>
       </c>
-      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>16</v>
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="14">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="13">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="3">
-        <v>17</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="14">
-        <v>17</v>
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="13">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D30" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1367,13 +1371,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1381,83 +1385,75 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>48</v>
+      <c r="A34" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>84</v>
+      <c r="A35" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21">
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="9">
         <v>23</v>
       </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1494,12 +1490,6 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D227A-724B-A847-BE56-DB09C84208FB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073CC78A-3CFC-F747-AF0D-351FCE116DB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -291,15 +291,29 @@
   </si>
   <si>
     <t>Heywood Jablomee</t>
+  </si>
+  <si>
+    <t>Velton</t>
+  </si>
+  <si>
+    <t>velton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -464,23 +478,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -614,12 +629,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
-    <sortCondition ref="B2:B37"/>
-    <sortCondition ref="A2:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="D2:D38"/>
+    <sortCondition ref="B2:B38"/>
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -928,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,28 +1343,28 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
+      <c r="A29" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D29" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1357,13 +1372,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1371,13 +1386,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1385,75 +1400,83 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>82</v>
+      <c r="A34" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21">
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>21</v>
+      <c r="A35" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1490,6 +1513,12 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073CC78A-3CFC-F747-AF0D-351FCE116DB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F3DF2-45AE-B845-A042-03A4E15D238F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Lizsen Kendet</t>
   </si>
   <si>
-    <t>tosh</t>
-  </si>
-  <si>
     <t>DarthDingus</t>
   </si>
   <si>
@@ -297,15 +294,29 @@
   </si>
   <si>
     <t>velton</t>
+  </si>
+  <si>
+    <t>Eocaid</t>
+  </si>
+  <si>
+    <t>eocaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -478,23 +489,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -946,7 +958,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,13 +987,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1003,13 +1015,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1045,7 +1057,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>39</v>
@@ -1057,13 +1069,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -1071,109 +1083,111 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="16">
-        <v>15</v>
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
+      <c r="A15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>77</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -1181,13 +1195,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -1195,13 +1209,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1209,162 +1223,162 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
       </c>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="3">
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="10">
         <v>16</v>
       </c>
-      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="14">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="13">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
+      <c r="A28" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
+      <c r="C28" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>85</v>
+      <c r="A29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1372,13 +1386,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
@@ -1400,13 +1414,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1414,13 +1428,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1428,7 +1442,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -1454,7 +1468,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -1466,13 +1480,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="9">
         <v>23</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F3DF2-45AE-B845-A042-03A4E15D238F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DAFDC-812C-C04A-B612-193F0AFABE84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="171026" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Hello There</t>
-  </si>
-  <si>
-    <t>Peach3702to2</t>
   </si>
   <si>
     <t>heywoodjablomee</t>
@@ -306,17 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -489,24 +478,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -641,12 +629,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D38">
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="B2:B38"/>
-    <sortCondition ref="A2:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -955,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,30 +1083,30 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1139,13 +1126,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
@@ -1153,41 +1140,39 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -1195,136 +1180,138 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="10">
         <v>16</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="13">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="D26" s="14">
         <v>17</v>
       </c>
     </row>
@@ -1343,14 +1330,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>84</v>
+      <c r="A28" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>85</v>
+      <c r="C28" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>
@@ -1371,14 +1358,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>86</v>
+      <c r="A30" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1386,27 +1373,25 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1414,13 +1399,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1428,27 +1413,29 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>81</v>
+      <c r="A35" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21">
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1467,30 +1454,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D37" s="9">
         <v>23</v>
       </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1527,12 +1508,6 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DAFDC-812C-C04A-B612-193F0AFABE84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B74C08-3F2C-2941-8156-7C99046D88FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="179020" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Andreas Angin</t>
   </si>
   <si>
-    <t>Ansirus</t>
-  </si>
-  <si>
     <t>Mops56</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>eocaid</t>
+  </si>
+  <si>
+    <t>Ansiruss</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -646,9 +646,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -686,7 +686,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -792,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -944,18 +944,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1016,13 +1016,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -1056,13 +1056,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -1076,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="12">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>15</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="16">
         <v>15</v>
@@ -1129,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
@@ -1166,13 +1166,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1192,13 +1192,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="10">
         <v>16</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>16</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
@@ -1261,13 +1261,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="13">
         <v>17</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3">
         <v>17</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="14">
         <v>17</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3">
         <v>21</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3">
         <v>22</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -1385,13 +1385,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="9">
         <v>23</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B74C08-3F2C-2941-8156-7C99046D88FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{FDB78BD0-D089-1E4C-8CF5-527A95B915B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>eocaid</t>
   </si>
   <si>
-    <t>Ansiruss</t>
+    <t>Ansirus</t>
   </si>
 </sst>
 </file>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{FDB78BD0-D089-1E4C-8CF5-527A95B915B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDC94C3-E097-F347-9EEB-A9F425CB63D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Ansirus</t>
+  </si>
+  <si>
+    <t>7alximik7</t>
+  </si>
+  <si>
+    <t>Alximik</t>
   </si>
 </sst>
 </file>
@@ -629,11 +635,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
-    <sortCondition ref="A2:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="D2:D38"/>
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -942,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1097,315 +1103,315 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
+      <c r="A11" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>16</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3">
-        <v>16</v>
-      </c>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>83</v>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>42</v>
+      <c r="A31" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D31" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
@@ -1413,13 +1419,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1427,13 +1433,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1441,37 +1447,45 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1508,6 +1522,12 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDC94C3-E097-F347-9EEB-A9F425CB63D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21632E81-CF10-2343-A50E-D1538E993A9D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>Alximik</t>
+  </si>
+  <si>
+    <t>JALI</t>
+  </si>
+  <si>
+    <t>:flag_ar:</t>
+  </si>
+  <si>
+    <t>jali</t>
   </si>
 </sst>
 </file>
@@ -635,11 +644,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D38">
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="A2:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="D2:D39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -948,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1349,83 +1358,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>82</v>
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
+      <c r="A32" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D32" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D34" s="3">
         <v>22</v>
@@ -1433,13 +1442,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1447,13 +1456,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1461,37 +1470,45 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1528,6 +1545,12 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21632E81-CF10-2343-A50E-D1538E993A9D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2C02-0237-424B-9B67-C9AF0993C459}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,29 +1344,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3">
         <v>21</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2C02-0237-424B-9B67-C9AF0993C459}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7AB9CA-8FA0-494C-AFEC-B2EB8A1AB59A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -297,9 +302,6 @@
   </si>
   <si>
     <t>Ansirus</t>
-  </si>
-  <si>
-    <t>7alximik7</t>
   </si>
   <si>
     <t>Alximik</t>
@@ -960,7 +962,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,14 +1115,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>87</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="22">
         <v>15</v>
       </c>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>21</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7AB9CA-8FA0-494C-AFEC-B2EB8A1AB59A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D5A61-B3E3-4449-BFE2-3A847388BB12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179020" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -28,11 +28,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -314,15 +309,29 @@
   </si>
   <si>
     <t>jali</t>
+  </si>
+  <si>
+    <t>Unclad</t>
+  </si>
+  <si>
+    <t>unclad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -495,23 +504,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -521,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -646,11 +656,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D39">
-    <sortCondition ref="D2:D39"/>
-    <sortCondition ref="A2:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D40">
+    <sortCondition ref="D2:D40"/>
+    <sortCondition ref="A2:A40"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -663,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -809,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -959,20 +969,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.89453125" style="4"/>
+    <col min="1" max="1" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,290 +1082,290 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>16</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="10">
-        <v>16</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="3">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1373,82 +1383,82 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>82</v>
+      <c r="A30" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D30" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
+      <c r="A33" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3">
         <v>22</v>
@@ -1456,13 +1466,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1470,13 +1480,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3">
         <v>22</v>
@@ -1484,37 +1494,45 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -1551,6 +1569,12 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D5A61-B3E3-4449-BFE2-3A847388BB12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2750AB-BD59-D747-813D-BFA4406BC74E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="179020" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -972,7 +972,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,82 +1124,82 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3">
         <v>16</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2750AB-BD59-D747-813D-BFA4406BC74E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1AF456C5-0A02-CF45-91F2-C295ED3C4516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
@@ -27,6 +27,11 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -531,7 +536,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -659,8 +664,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:D40">
-    <sortCondition ref="D2:D40"/>
-    <sortCondition ref="A2:A40"/>
+    <sortCondition ref="D1:D40"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -673,9 +677,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,7 +717,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -819,7 +823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -971,18 +975,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,96 +1374,96 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D29" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>82</v>
+      <c r="A31" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D31" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
+      <c r="A34" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>22</v>
       </c>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1AF456C5-0A02-CF45-91F2-C295ED3C4516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC31A4A-098B-0045-A9A1-75103F6D8B6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -663,7 +664,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition ref="D1:D40"/>
   </sortState>
   <tableColumns count="4">
@@ -976,7 +977,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,98 +1279,98 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3">
+        <v>65</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="14">
-        <v>17</v>
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC31A4A-098B-0045-A9A1-75103F6D8B6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3E7FC17A-CBA0-8145-8735-C3F90ED838E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,98 +1223,98 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="A20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="10">
         <v>16</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
+      <c r="A24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D24" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3E7FC17A-CBA0-8145-8735-C3F90ED838E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{93E0E1D1-B8A6-8645-92CA-812791EE060C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1006,55 +1006,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>79</v>
+      <c r="A4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{93E0E1D1-B8A6-8645-92CA-812791EE060C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7EF2BFBD-5F33-8546-99AB-96F044DED6D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1006,55 +1006,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
+      <c r="A4" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>79</v>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1062,42 +1062,42 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
+      <c r="A7" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>91</v>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>92</v>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7EF2BFBD-5F33-8546-99AB-96F044DED6D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073347E4-0CC0-7C45-8389-AAD6406E0F8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -27,12 +27,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -537,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -664,7 +658,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+  <sortState ref="A2:D40">
     <sortCondition ref="D1:D40"/>
   </sortState>
   <tableColumns count="4">
@@ -678,9 +672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -718,7 +712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -824,7 +818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -976,18 +970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.87109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.89453125" style="4"/>
+    <col min="1" max="1" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,41 +1000,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>79</v>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1048,256 +1042,256 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
+      <c r="A6" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>91</v>
+      <c r="A7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>92</v>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
+      <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="A19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3">
         <v>16</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
+      <c r="A23" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -1444,40 +1438,40 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>84</v>
+      <c r="A34" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D35" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3">
         <v>22</v>
@@ -1485,13 +1479,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3">
         <v>22</v>
@@ -1499,13 +1493,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
         <v>22</v>
@@ -1513,16 +1507,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073347E4-0CC0-7C45-8389-AAD6406E0F8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11446850-64B0-5745-9E37-23B22830D0F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -110,42 +110,6 @@
     <t>gnarlee</t>
   </si>
   <si>
-    <t>jezza</t>
-  </si>
-  <si>
-    <t>kabob</t>
-  </si>
-  <si>
-    <t>pinnnkky</t>
-  </si>
-  <si>
-    <t>gorra</t>
-  </si>
-  <si>
-    <t>ansirus</t>
-  </si>
-  <si>
-    <t>mops56</t>
-  </si>
-  <si>
-    <t>xilentis</t>
-  </si>
-  <si>
-    <t>jinnkuen</t>
-  </si>
-  <si>
-    <t>fss001</t>
-  </si>
-  <si>
-    <t>afatkid</t>
-  </si>
-  <si>
-    <t>nebling4</t>
-  </si>
-  <si>
-    <t>rylb89</t>
-  </si>
-  <si>
     <t>SWGOHGG</t>
   </si>
   <si>
@@ -170,30 +134,15 @@
     <t>:flag_be:</t>
   </si>
   <si>
-    <t>lizsen77</t>
-  </si>
-  <si>
-    <t>darthdingus6666</t>
-  </si>
-  <si>
     <t>Mogilnin</t>
   </si>
   <si>
-    <t>mogilnin</t>
-  </si>
-  <si>
     <t>Himalia Covell</t>
   </si>
   <si>
     <t>MacDaddy</t>
   </si>
   <si>
-    <t>mcgregor2323</t>
-  </si>
-  <si>
-    <t>wizeng23</t>
-  </si>
-  <si>
     <t>Dorff Luden</t>
   </si>
   <si>
@@ -206,21 +155,12 @@
     <t>:flag_au:</t>
   </si>
   <si>
-    <t>drayton</t>
-  </si>
-  <si>
-    <t>mistad33ds</t>
-  </si>
-  <si>
     <t>Mista D33ds</t>
   </si>
   <si>
     <t>:flag_se:</t>
   </si>
   <si>
-    <t>angin</t>
-  </si>
-  <si>
     <t>Medved</t>
   </si>
   <si>
@@ -230,72 +170,42 @@
     <t>:flag_tr:</t>
   </si>
   <si>
-    <t>alastis</t>
-  </si>
-  <si>
     <t>Br4inw4sh3r</t>
   </si>
   <si>
     <t>:flag_pt:</t>
   </si>
   <si>
-    <t>br4inw4sh3r</t>
-  </si>
-  <si>
     <t>:flag_ua:</t>
   </si>
   <si>
-    <t>medved</t>
-  </si>
-  <si>
     <t>Mahargo Broh</t>
   </si>
   <si>
-    <t>mahargobroh</t>
-  </si>
-  <si>
     <t>Yodazmey</t>
   </si>
   <si>
-    <t>yodazmey</t>
-  </si>
-  <si>
     <t>hank ulator</t>
   </si>
   <si>
-    <t>hankulator</t>
-  </si>
-  <si>
     <t>:flag_fr:</t>
   </si>
   <si>
     <t>:flag_nl:</t>
   </si>
   <si>
-    <t>siilasmarr</t>
-  </si>
-  <si>
     <t>Hello There</t>
   </si>
   <si>
-    <t>heywoodjablomee</t>
-  </si>
-  <si>
     <t>Heywood Jablomee</t>
   </si>
   <si>
     <t>Velton</t>
   </si>
   <si>
-    <t>velton</t>
-  </si>
-  <si>
     <t>Eocaid</t>
   </si>
   <si>
-    <t>eocaid</t>
-  </si>
-  <si>
     <t>Ansirus</t>
   </si>
   <si>
@@ -308,22 +218,24 @@
     <t>:flag_ar:</t>
   </si>
   <si>
-    <t>jali</t>
-  </si>
-  <si>
     <t>Unclad</t>
-  </si>
-  <si>
-    <t>unclad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -504,23 +416,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -528,6 +441,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +570,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D40">
-    <sortCondition ref="D1:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D41">
+    <sortCondition ref="D1:D41"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -968,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1005,23 +919,19 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -1033,19 +943,17 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -1054,14 +962,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -1073,23 +979,19 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8">
         <v>8</v>
       </c>
@@ -1101,47 +1003,41 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
@@ -1155,23 +1051,19 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="16">
         <v>15</v>
       </c>
@@ -1181,21 +1073,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6">
@@ -1204,10 +1094,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1216,42 +1106,36 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>69</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3">
         <v>16</v>
       </c>
@@ -1259,10 +1143,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
@@ -1276,51 +1160,43 @@
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C24" s="18"/>
       <c r="D24" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="13">
         <v>17</v>
       </c>
@@ -1332,117 +1208,101 @@
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
+      <c r="A28" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>82</v>
+      <c r="A32" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>83</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
+      <c r="A33" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C33" s="21"/>
       <c r="D33" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
@@ -1451,93 +1311,87 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1574,6 +1428,12 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11446850-64B0-5745-9E37-23B22830D0F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609A8A0-5F4B-7E46-B733-186034BEEADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -116,9 +116,6 @@
     <t>Siilas Marr</t>
   </si>
   <si>
-    <t>:skull_crossbones:</t>
-  </si>
-  <si>
     <t>Lizsen Kendet</t>
   </si>
   <si>
@@ -219,15 +216,26 @@
   </si>
   <si>
     <t>Unclad</t>
+  </si>
+  <si>
+    <t>:skull:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,23 +424,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,8 +449,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +894,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +935,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -950,10 +959,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -962,7 +971,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -986,10 +995,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8">
@@ -1010,7 +1019,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1022,10 +1031,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12">
@@ -1034,10 +1043,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
@@ -1058,10 +1067,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16">
@@ -1073,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -1082,10 +1091,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6">
@@ -1094,10 +1103,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1106,10 +1115,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -1118,10 +1127,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="10">
@@ -1133,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -1143,10 +1152,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
@@ -1167,7 +1176,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -1179,10 +1188,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="3">
@@ -1191,10 +1200,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1215,7 +1224,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>10</v>
@@ -1227,7 +1236,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -1251,7 +1260,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -1275,10 +1284,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
@@ -1287,7 +1296,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
@@ -1311,10 +1320,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
@@ -1335,7 +1344,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -1347,7 +1356,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -1383,7 +1392,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>5</v>

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609A8A0-5F4B-7E46-B733-186034BEEADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B1B6C-1AC3-494B-AA7C-D2AF30826A91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -225,9 +225,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,23 +432,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -448,8 +457,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -894,7 +903,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,8 +1247,8 @@
       <c r="A28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
+      <c r="B28" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25">

--- a/data/BB8.xlsx
+++ b/data/BB8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-bots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B1B6C-1AC3-494B-AA7C-D2AF30826A91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564F3C9-2F33-FC4C-9C8D-3C7C67705EC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -225,17 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -432,14 +424,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -588,10 +579,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:D41">
-    <sortCondition ref="D1:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:D40">
+    <sortCondition ref="D1:D40"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
@@ -900,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +934,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -970,7 +961,7 @@
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="3"/>
@@ -979,13 +970,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -1003,14 +994,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1039,26 +1030,26 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
         <v>15</v>
       </c>
     </row>
@@ -1075,14 +1066,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>15</v>
       </c>
     </row>
@@ -1090,7 +1081,7 @@
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3"/>
@@ -1099,23 +1090,23 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1123,60 +1114,60 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="A18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>16</v>
       </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <v>16</v>
       </c>
-      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
+      <c r="A22" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
@@ -1184,107 +1175,107 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="A23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="3">
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>17</v>
-      </c>
-    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
-        <v>17</v>
+      <c r="A27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -1292,35 +1283,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>57</v>
+      <c r="A32" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="20"/>
       <c r="D32" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>53</v>
+      <c r="A33" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
@@ -1329,10 +1320,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
@@ -1341,7 +1332,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -1353,7 +1344,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -1365,7 +1356,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1377,39 +1368,33 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9">
-        <v>23</v>
-      </c>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1446,12 +1431,6 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
